--- a/data/trans_dic/P1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1833689500272273</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1714816745411321</v>
+        <v>0.171481674541132</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05566587771367017</v>
+        <v>0.0551875009742369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08193497457621793</v>
+        <v>0.08526098152971395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1736693360150589</v>
+        <v>0.1761038441769756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.140707036075518</v>
+        <v>0.1392629882109562</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0658754235342333</v>
+        <v>0.06424386371393752</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09428075317222141</v>
+        <v>0.09386893929787625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1084279347503836</v>
+        <v>0.1062155745611893</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1443912788554551</v>
+        <v>0.1418002827133136</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06439311406327361</v>
+        <v>0.06675768863069095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09721342682239451</v>
+        <v>0.09855299021151658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1560624189140815</v>
+        <v>0.1551914646168757</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1511443007956977</v>
+        <v>0.1501348243042962</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1096618633749258</v>
+        <v>0.1098715815238853</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.143922855393942</v>
+        <v>0.1503946240662835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2558093931217826</v>
+        <v>0.2614137019720218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2101842768990492</v>
+        <v>0.2074298767126785</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1318997030971445</v>
+        <v>0.132820627542829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1783179065409736</v>
+        <v>0.1740478177998621</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1858998434859958</v>
+        <v>0.1849187579237756</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.19703292929356</v>
+        <v>0.1985737643138361</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1083197012818879</v>
+        <v>0.1077465365289934</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1485131442735227</v>
+        <v>0.148259538828811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2176586363536118</v>
+        <v>0.2164195796266577</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1941681002063388</v>
+        <v>0.1950186005627609</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09372244012095733</v>
+        <v>0.0908356564934152</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0606890786530511</v>
+        <v>0.06017015627341533</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07286266654752145</v>
+        <v>0.06912626804875457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1534366597699345</v>
+        <v>0.1514926721335439</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05003734754102961</v>
+        <v>0.05053587387596178</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05160207107526128</v>
+        <v>0.0505404847948145</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09573959202584059</v>
+        <v>0.09373066330442195</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1184464079340757</v>
+        <v>0.1194195226180875</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07885918246453484</v>
+        <v>0.07725862254398011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06539119813282493</v>
+        <v>0.06225647571225253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09236300901025056</v>
+        <v>0.09140328703092046</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1429044703419664</v>
+        <v>0.1420699864424077</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1624045908735434</v>
+        <v>0.1646913586624674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1221741118955707</v>
+        <v>0.1196108596051444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1372855380599029</v>
+        <v>0.1348169456041324</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2176575586264845</v>
+        <v>0.2210722380773465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1040300704297783</v>
+        <v>0.1093912355523409</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1123098466049876</v>
+        <v>0.1126413528232273</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1677773305005295</v>
+        <v>0.1693857129456735</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1735194976709039</v>
+        <v>0.1723892376210487</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1234368393059771</v>
+        <v>0.1243378644320283</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.109093089058012</v>
+        <v>0.10529761000904</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1428205686282292</v>
+        <v>0.1390482509024748</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.189691819349936</v>
+        <v>0.1884672760752452</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1065340991686601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1805866441939183</v>
+        <v>0.1805866441939182</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06483035388479295</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03881575075410465</v>
+        <v>0.03820571439503959</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06071614584778075</v>
+        <v>0.05906216900188598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0827951704901054</v>
+        <v>0.08281793829755109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1455264817999314</v>
+        <v>0.1482255147669091</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03372039632183223</v>
+        <v>0.03537756602889262</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07448288987282385</v>
+        <v>0.07435344004803379</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1084852406929112</v>
+        <v>0.1119353085789328</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1627081052362818</v>
+        <v>0.1617587337352148</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04138092337828519</v>
+        <v>0.04336441167986235</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07033350436964582</v>
+        <v>0.07143685558347883</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09916435959666878</v>
+        <v>0.09687386713591981</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1600637091322068</v>
+        <v>0.1604277281865901</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08176695732418547</v>
+        <v>0.07863459392515208</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1090028394637225</v>
+        <v>0.107449298291777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1360049855354156</v>
+        <v>0.1378227411726996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2239951193024017</v>
+        <v>0.2150615682208269</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1101896552133211</v>
+        <v>0.1138426938224552</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1573011336109333</v>
+        <v>0.156159650263495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2342694161289144</v>
+        <v>0.2325160018469936</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2607138668564631</v>
+        <v>0.2580360895651796</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07886799420880794</v>
+        <v>0.07794252779632606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1116197474269449</v>
+        <v>0.1112136612432059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1487780359607355</v>
+        <v>0.1487404290115543</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2170593543698043</v>
+        <v>0.2180615540169986</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05376485745311503</v>
+        <v>0.05411518232599499</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07205902929659092</v>
+        <v>0.07102215926614648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08621469315146642</v>
+        <v>0.08572489930793645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1717031035211861</v>
+        <v>0.170826042400934</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05355329217984488</v>
+        <v>0.05274916374211919</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03855728385753357</v>
+        <v>0.03919252778279547</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.108175307134093</v>
+        <v>0.1071489352416432</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1237442481367884</v>
+        <v>0.1253429147096208</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05918214835566355</v>
+        <v>0.05770381598164882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06236714737386491</v>
+        <v>0.06117086439401472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1005493403092748</v>
+        <v>0.100875114253921</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1562946359088093</v>
+        <v>0.1567221913269605</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08332810343149114</v>
+        <v>0.08371866312939594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1051848504309146</v>
+        <v>0.1042806267293167</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1227719362256362</v>
+        <v>0.1240637359736329</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2181725154330331</v>
+        <v>0.2186276482859618</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09287903248290194</v>
+        <v>0.09318559943528398</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0764892279595394</v>
+        <v>0.07328552323536615</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1538980079740396</v>
+        <v>0.157211779212011</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1629272030265865</v>
+        <v>0.164760523041473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08192006345281257</v>
+        <v>0.08098580521016377</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08706253892318533</v>
+        <v>0.08675104684602553</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1302386363439902</v>
+        <v>0.1315273040700426</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.188414514312626</v>
+        <v>0.1875978466396086</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1496479131428058</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2481556836935155</v>
+        <v>0.2481556836935154</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08336678170048673</v>
@@ -1241,7 +1241,7 @@
         <v>0.1305477929089563</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2211516275494681</v>
+        <v>0.221151627549468</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0711251751539454</v>
+        <v>0.0729647087182389</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05773580191475235</v>
+        <v>0.05816695431930199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1229430169588347</v>
+        <v>0.1237212886613408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.209098122868776</v>
+        <v>0.2130434100306365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06190112348692513</v>
+        <v>0.06094454187423334</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.083799040653063</v>
+        <v>0.08592616111064376</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09110293305904998</v>
+        <v>0.09280814919148669</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1821382952103525</v>
+        <v>0.181754932373333</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07127212060957835</v>
+        <v>0.07254275660002821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07765498092450934</v>
+        <v>0.07975453616570193</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1129914179217592</v>
+        <v>0.11524272063933</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2006639204852138</v>
+        <v>0.2008441989988909</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1411326292122254</v>
+        <v>0.1435104131038047</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1057799074725344</v>
+        <v>0.1037483027400891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1819843267388636</v>
+        <v>0.1801278700760798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2934676513076974</v>
+        <v>0.2921705744811244</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1095873726479952</v>
+        <v>0.1077617838846635</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1299540157641776</v>
+        <v>0.1309119609366115</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1392236850667131</v>
+        <v>0.1398938521037456</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2240578560331214</v>
+        <v>0.2250471581947756</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1106131367217879</v>
+        <v>0.1150006840862139</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1126553703201894</v>
+        <v>0.1118153864403652</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1508348819890981</v>
+        <v>0.1507528973374473</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2419410136323537</v>
+        <v>0.2441418515527339</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009466548596891769</v>
+        <v>0.009268344736784341</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01183916109560668</v>
+        <v>0.01207964113881583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05305933537186983</v>
+        <v>0.05528799699245505</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0193912805419579</v>
+        <v>0.01925382991147954</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08726103273872689</v>
+        <v>0.08863356578788402</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1053763844407337</v>
+        <v>0.1022351034442014</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1188430991499664</v>
+        <v>0.117520682526048</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1772057507550198</v>
+        <v>0.1781687757145776</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07497489907963088</v>
+        <v>0.07490710001906974</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08941851341579626</v>
+        <v>0.08802763146241215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1096787461312503</v>
+        <v>0.1106569690628685</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1467767121664742</v>
+        <v>0.1444651892372179</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04670716428937736</v>
+        <v>0.04800258304816116</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0554657374201129</v>
+        <v>0.05361125415168717</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1229999584771722</v>
+        <v>0.1214914993904851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08801073519497508</v>
+        <v>0.09387017058295212</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1223564837580563</v>
+        <v>0.1225542196707765</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1440072257736838</v>
+        <v>0.1432606797745183</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1624662852566461</v>
+        <v>0.1630643020761722</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2235166254633656</v>
+        <v>0.2262691814510847</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1047519174968801</v>
+        <v>0.1047860544360979</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.12138463896257</v>
+        <v>0.1227619249442285</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1480722928305633</v>
+        <v>0.1499963989407915</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.186324093511589</v>
+        <v>0.1883513688444069</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06433120738864795</v>
+        <v>0.06404314753922385</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.072342615095857</v>
+        <v>0.07338354824105203</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1131274166677695</v>
+        <v>0.1137979443717047</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1734322356332539</v>
+        <v>0.173465219339359</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07843346259437058</v>
+        <v>0.07796784466789343</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08946973450553902</v>
+        <v>0.08934222759950777</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1213534290918653</v>
+        <v>0.1195459128413679</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1673815634768124</v>
+        <v>0.1672319013512709</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07317302349838892</v>
+        <v>0.07406686873122006</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08471333800572385</v>
+        <v>0.08489104897676984</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1200778025367256</v>
+        <v>0.1197837851665873</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1719497486861943</v>
+        <v>0.1732821283029808</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08291701044568588</v>
+        <v>0.08303929225761232</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0925700532192192</v>
+        <v>0.09406354510239288</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.136838767483889</v>
+        <v>0.1372575218126337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2019062692937295</v>
+        <v>0.20189291539447</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09852178337915836</v>
+        <v>0.09857435495895427</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1107647480525717</v>
+        <v>0.1108264388900277</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1447573720136746</v>
+        <v>0.1442104567789735</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1873545931884343</v>
+        <v>0.1875788658396784</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08620311410453878</v>
+        <v>0.08785717949130303</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09975074300690634</v>
+        <v>0.09906822520931763</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1368551314402171</v>
+        <v>0.137357781138445</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1898869468049155</v>
+        <v>0.189458999199272</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26373</v>
+        <v>26147</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35823</v>
+        <v>37277</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>74520</v>
+        <v>75565</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>77476</v>
+        <v>76681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20203</v>
+        <v>19702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29647</v>
+        <v>29517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37630</v>
+        <v>36863</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>70522</v>
+        <v>69257</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50256</v>
+        <v>52102</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>73072</v>
+        <v>74079</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>121127</v>
+        <v>120451</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>157043</v>
+        <v>155994</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51955</v>
+        <v>52055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62925</v>
+        <v>65754</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109766</v>
+        <v>112171</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>115731</v>
+        <v>114215</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40451</v>
+        <v>40733</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56073</v>
+        <v>54730</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64517</v>
+        <v>64177</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96233</v>
+        <v>96986</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>84539</v>
+        <v>84092</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>111632</v>
+        <v>111442</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>168935</v>
+        <v>167973</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>201746</v>
+        <v>202630</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34390</v>
+        <v>33331</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25416</v>
+        <v>25199</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27486</v>
+        <v>26076</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74142</v>
+        <v>73203</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18607</v>
+        <v>18793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17442</v>
+        <v>17083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35641</v>
+        <v>34893</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50120</v>
+        <v>50532</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58261</v>
+        <v>57079</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49489</v>
+        <v>47116</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>69226</v>
+        <v>68507</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>129522</v>
+        <v>128766</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59592</v>
+        <v>60431</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>51166</v>
+        <v>50093</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51788</v>
+        <v>50857</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105175</v>
+        <v>106825</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38685</v>
+        <v>40679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37962</v>
+        <v>38074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>62459</v>
+        <v>63058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73424</v>
+        <v>72945</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91195</v>
+        <v>91861</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82563</v>
+        <v>79690</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107044</v>
+        <v>104217</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>171928</v>
+        <v>170818</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21053</v>
+        <v>20722</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38216</v>
+        <v>37175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43212</v>
+        <v>43224</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68632</v>
+        <v>69905</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5658</v>
+        <v>5936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19375</v>
+        <v>19341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18022</v>
+        <v>18595</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30507</v>
+        <v>30329</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>29388</v>
+        <v>30796</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62565</v>
+        <v>63546</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>68229</v>
+        <v>66653</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>105499</v>
+        <v>105739</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44349</v>
+        <v>42651</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>68608</v>
+        <v>67630</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70983</v>
+        <v>71932</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>105639</v>
+        <v>101426</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18488</v>
+        <v>19101</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40919</v>
+        <v>40622</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38918</v>
+        <v>38626</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48883</v>
+        <v>48381</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56010</v>
+        <v>55353</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>99291</v>
+        <v>98929</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102365</v>
+        <v>102339</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>143066</v>
+        <v>143726</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66579</v>
+        <v>67013</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83517</v>
+        <v>82315</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99116</v>
+        <v>98553</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>194341</v>
+        <v>193348</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>38252</v>
+        <v>37678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29560</v>
+        <v>30047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>89339</v>
+        <v>88492</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>106570</v>
+        <v>107947</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>115560</v>
+        <v>112674</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>120098</v>
+        <v>117795</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>198637</v>
+        <v>199280</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>311504</v>
+        <v>312356</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103188</v>
+        <v>103672</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121910</v>
+        <v>120862</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141143</v>
+        <v>142628</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>246937</v>
+        <v>247452</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>66342</v>
+        <v>66561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>58641</v>
+        <v>56185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>127101</v>
+        <v>129837</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>140315</v>
+        <v>141894</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>159959</v>
+        <v>158135</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>167653</v>
+        <v>167054</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>257288</v>
+        <v>259834</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>375520</v>
+        <v>373893</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24933</v>
+        <v>25578</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29480</v>
+        <v>29700</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>76311</v>
+        <v>76795</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>118760</v>
+        <v>121001</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35206</v>
+        <v>34662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>63815</v>
+        <v>65435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67256</v>
+        <v>68515</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>151330</v>
+        <v>151011</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>65521</v>
+        <v>66689</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>98786</v>
+        <v>101457</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>153550</v>
+        <v>156609</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>280692</v>
+        <v>280944</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49475</v>
+        <v>50308</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54011</v>
+        <v>52973</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112959</v>
+        <v>111806</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>166679</v>
+        <v>165942</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62328</v>
+        <v>61290</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98963</v>
+        <v>99692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>102781</v>
+        <v>103276</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>186158</v>
+        <v>186980</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>101687</v>
+        <v>105721</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>143311</v>
+        <v>142242</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>204977</v>
+        <v>204866</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>338430</v>
+        <v>341509</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2823</v>
+        <v>2764</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3160</v>
+        <v>3224</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15236</v>
+        <v>15876</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4600</v>
+        <v>4568</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>108968</v>
+        <v>110682</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>116899</v>
+        <v>113415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>128591</v>
+        <v>127160</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>149611</v>
+        <v>150425</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>115983</v>
+        <v>115878</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>123061</v>
+        <v>121147</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>150169</v>
+        <v>151508</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>158740</v>
+        <v>156240</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13928</v>
+        <v>14314</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14803</v>
+        <v>14308</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35319</v>
+        <v>34886</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20879</v>
+        <v>22269</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>152794</v>
+        <v>153041</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>159755</v>
+        <v>158926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>175793</v>
+        <v>176440</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>188711</v>
+        <v>191035</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>162047</v>
+        <v>162100</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>167054</v>
+        <v>168949</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>202736</v>
+        <v>205371</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>201511</v>
+        <v>203704</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>210375</v>
+        <v>209433</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>247550</v>
+        <v>251112</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>383018</v>
+        <v>385288</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>597036</v>
+        <v>597150</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>264958</v>
+        <v>263385</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>317629</v>
+        <v>317176</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>428571</v>
+        <v>422188</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>608498</v>
+        <v>607954</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>486477</v>
+        <v>492420</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>590624</v>
+        <v>591863</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>830616</v>
+        <v>828583</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1217038</v>
+        <v>1226468</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>271154</v>
+        <v>271554</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>316766</v>
+        <v>321877</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>463298</v>
+        <v>464716</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>695057</v>
+        <v>695012</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>332819</v>
+        <v>332996</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>393229</v>
+        <v>393448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>511225</v>
+        <v>509293</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>681108</v>
+        <v>681923</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>573105</v>
+        <v>584102</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>695466</v>
+        <v>690707</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>946670</v>
+        <v>950147</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1343995</v>
+        <v>1340966</v>
       </c>
     </row>
     <row r="32">
